--- a/medicine/Psychotrope/Pousse_Rapière/Pousse_Rapière.xlsx
+++ b/medicine/Psychotrope/Pousse_Rapière/Pousse_Rapière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pousse_Rapi%C3%A8re</t>
+          <t>Pousse_Rapière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Pousse Rapière est un cocktail gascon produit par le Château de Monluc[1], à Saint-Puy, dans le département du Gers[2]. Il se consomme en apéritif.
+Le Pousse Rapière est un cocktail gascon produit par le Château de Monluc, à Saint-Puy, dans le département du Gers. Il se consomme en apéritif.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pousse_Rapi%C3%A8re</t>
+          <t>Pousse_Rapière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origine du nom Pousse Rapière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme de Pousse Rapière rend hommage aux Gascons du XVIe siècle qui maniaient habilement cette épée.
 La rapière est la première arme d'estoc, arme permettant d'attaquer l'ennemi, contrairement aux armes de taille, lourdes épées du Moyen Âge, utilisées à la manière de haches, pour se défendre. L'expression à l'époque disait qu'on « poussait la rapière » vers l'ennemi. 
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pousse_Rapi%C3%A8re</t>
+          <t>Pousse_Rapière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Les deux composants</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liqueur Pousse Rapière : liqueur d'armagnac aromatisée à l'orange amère. Créée dans les années 1960 par René Lassus, cette liqueur est une production exclusive du Château de Monluc[3]. La recette est gardée secrète.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liqueur Pousse Rapière : liqueur d'armagnac aromatisée à l'orange amère. Créée dans les années 1960 par René Lassus, cette liqueur est une production exclusive du Château de Monluc. La recette est gardée secrète.
 Le Vin sauvage : vin mousseux brut, blanc de blancs, de méthode traditionnelle produit par le Château de Monluc. Les cépages utilisés sont les mêmes que ceux choisis pour l'armagnac dont est issue la liqueur.
 </t>
         </is>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pousse_Rapi%C3%A8re</t>
+          <t>Pousse_Rapière</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Le cocktail</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Idéalement, le cocktail se fait avec le Vin sauvage afin de respecter l'identité des cépages qui permet un mariage parfait entre les deux composants. Un autre vin mousseux peut cependant convenir, à condition qu'il soit brut. La liqueur étant déjà sucrée, l'association avec un vin demi-sec ou doux donnerait un cocktail trop sucré. 
 Les proportions recommandées sont de un volume de liqueur Pousse Rapière pour six volumes de Vin sauvage. Afin de faciliter ce dosage, le Château de Monluc a conçu : 
